--- a/biology/Zoologie/Crotalus_lepidus/Crotalus_lepidus.xlsx
+++ b/biology/Zoologie/Crotalus_lepidus/Crotalus_lepidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus lepidus ou crotale des rochers ou crotale à bandes est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus lepidus ou crotale des rochers ou crotale à bandes est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le sud du Nouveau-Mexique, dans l'ouest du Texas et dans le sud-est de l'Arizona ;
 au Mexique dans les États de Chihuahua, de Durango, de Sinaloa, de Nayarit, de Jalisco, de Nuevo León, d'Aguascalientes et de Tamaulipas.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux et vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux et vivipare.
 Il mesure 65 centimètres de long.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Crotalus lepidus klauberi Gloyd, 1936
 Crotalus lepidus lepidus (Kennicott, 1861)
 Crotalus lepidus maculosus Tanner, Dixon &amp; Harris, 1972
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gloyd, 1936 : The subspecies of Crotalus lepidus. Occasional Papers of the Museum of Zoology, University of Michigan, no 337, p. 1-5 (texte intégral).
 Kennicott, 1861 : On three new forms of rattlesnakes. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 13, p. 206-207 (texte intégral).
